--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_10_8_23.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_10_8_23.xlsx
@@ -508,7 +508,7 @@
         <v>0.6951161619240627</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6951160430908203</v>
+        <v>0.6951165199279785</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>2.560174814827988</v>
       </c>
       <c r="D6" t="n">
-        <v>2.560174703598022</v>
+        <v>2.560174942016602</v>
       </c>
     </row>
     <row r="7">
@@ -564,7 +564,7 @@
         <v>0.705123113609381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7051234245300293</v>
+        <v>0.7051229476928711</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>0.4571740675899418</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3272550106048584</v>
+        <v>0.3272554874420166</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>3.617744972669021</v>
       </c>
       <c r="D16" t="n">
-        <v>3.617745161056519</v>
+        <v>3.617744922637939</v>
       </c>
     </row>
     <row r="17">
@@ -774,7 +774,7 @@
         <v>1.657512896333784</v>
       </c>
       <c r="D24" t="n">
-        <v>1.657513022422791</v>
+        <v>1.657512903213501</v>
       </c>
     </row>
     <row r="25">
@@ -788,7 +788,7 @@
         <v>1.409563850314345</v>
       </c>
       <c r="D25" t="n">
-        <v>1.281209588050842</v>
+        <v>1.281209707260132</v>
       </c>
     </row>
     <row r="26">
